--- a/Online_Retailer_SampleData.xlsx
+++ b/Online_Retailer_SampleData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philip\Documents\GitHub\303CEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer -&gt; Manufacturer" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>char(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>manufacturer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,24 +189,30 @@
   <si>
     <t>double (9,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer_id</t>
+  </si>
+  <si>
+    <t>char(10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -531,18 +529,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -559,32 +557,32 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -593,18 +591,18 @@
         <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -613,18 +611,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -633,18 +631,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -653,18 +651,18 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -673,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -693,38 +691,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -732,116 +730,116 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Online_Retailer_SampleData.xlsx
+++ b/Online_Retailer_SampleData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer -&gt; Manufacturer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
   <si>
     <t>item_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,118 +83,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  16:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  17:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-01-25  12:30:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hong Kong A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double (9,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer_id</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
     <t>logistic_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>retailer_id</t>
   </si>
   <si>
     <t>R001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  16:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  17:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019-01-25  12:30:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hong Kong A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double (9,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacturer_id</t>
-  </si>
-  <si>
-    <t>char(10)</t>
   </si>
 </sst>
 </file>
@@ -529,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -557,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -568,7 +573,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -577,12 +582,12 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -591,18 +596,18 @@
         <v>5.5</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -611,18 +616,18 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -631,18 +636,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -651,18 +656,18 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -671,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -689,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -702,7 +707,7 @@
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -719,10 +724,13 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -741,105 +749,123 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
